--- a/ZERO Digital twin energy system/_mvlv_transformers.xlsx
+++ b/ZERO Digital twin energy system/_mvlv_transformers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Digital-twin-Antoniapolder\Digital twin Antoniapolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Digital-twin-Drechtsteden\ZERO Digital twin energy system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB2968-A20B-451B-A0EA-F8AFDD425F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB737C35-917F-4780-AECE-04B03C584404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>currentsta</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A3" sqref="A3:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -511,399 +511,23 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>674891793</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>674891722</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="1"/>
       <c r="P2">
-        <v>4.6528312250600123</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>51.848973954351777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>398188914</v>
-      </c>
-      <c r="B3" s="2">
-        <v>398188242</v>
-      </c>
-      <c r="C3" s="2">
-        <v>400</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="P3">
-        <v>4.6539642975239444</v>
-      </c>
-      <c r="Q3">
-        <v>51.850525490551981</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>81311350</v>
-      </c>
-      <c r="B4" s="2">
-        <v>52091472</v>
-      </c>
-      <c r="C4" s="2">
-        <v>630</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="P4">
-        <v>4.6469350857822223</v>
-      </c>
-      <c r="Q4">
-        <v>51.853869450829627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>81296703</v>
-      </c>
-      <c r="B5" s="2">
-        <v>52091502</v>
-      </c>
-      <c r="C5" s="2">
-        <v>400</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="P5">
-        <v>4.6496743219710561</v>
-      </c>
-      <c r="Q5">
-        <v>51.851678630918578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>81296661</v>
-      </c>
-      <c r="B6" s="2">
-        <v>52091502</v>
-      </c>
-      <c r="C6" s="2">
-        <v>400</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="P6">
-        <v>4.6496743219710561</v>
-      </c>
-      <c r="Q6">
-        <v>51.851678630918578</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>81284500</v>
-      </c>
-      <c r="B7" s="2">
-        <v>52091507</v>
-      </c>
-      <c r="C7" s="2">
-        <v>300</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="P7">
-        <v>4.6488459288679396</v>
-      </c>
-      <c r="Q7">
-        <v>51.852588348470242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>81300148</v>
-      </c>
-      <c r="B8" s="2">
-        <v>52091522</v>
-      </c>
-      <c r="C8" s="2">
-        <v>400</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="P8">
-        <v>4.6501322153645557</v>
-      </c>
-      <c r="Q8">
-        <v>51.853843857256678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>81310343</v>
-      </c>
-      <c r="B9" s="2">
-        <v>52091527</v>
-      </c>
-      <c r="C9" s="2">
-        <v>630</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="P9">
-        <v>4.651922563199534</v>
-      </c>
-      <c r="Q9">
-        <v>51.853070008513399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>304818389</v>
-      </c>
-      <c r="B10" s="2">
-        <v>52091607</v>
-      </c>
-      <c r="C10" s="2">
-        <v>630</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="P10">
-        <v>4.6570283801609502</v>
-      </c>
-      <c r="Q10">
-        <v>51.848212708427603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>81302329</v>
-      </c>
-      <c r="B11" s="2">
-        <v>52091831</v>
-      </c>
-      <c r="C11" s="2">
-        <v>630</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="P11">
-        <v>4.6576602147598622</v>
-      </c>
-      <c r="Q11">
-        <v>51.845114864491848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>81302298</v>
-      </c>
-      <c r="B12" s="2">
-        <v>52091831</v>
-      </c>
-      <c r="C12" s="2">
-        <v>630</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="P12">
-        <v>4.6576602147598622</v>
-      </c>
-      <c r="Q12">
-        <v>51.845114864491848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>81309134</v>
-      </c>
-      <c r="B13" s="2">
-        <v>52091846</v>
-      </c>
-      <c r="C13" s="2">
-        <v>400</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="P13">
-        <v>4.6590295064147718</v>
-      </c>
-      <c r="Q13">
-        <v>51.840693709750163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>81280518</v>
-      </c>
-      <c r="B14" s="2">
-        <v>52091851</v>
-      </c>
-      <c r="C14" s="2">
-        <v>300</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="P14">
-        <v>4.6591568173756119</v>
-      </c>
-      <c r="Q14">
-        <v>51.836645863636733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>625518941</v>
-      </c>
-      <c r="B15" s="2">
-        <v>625518731</v>
-      </c>
-      <c r="C15" s="2">
-        <v>630</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="P15">
-        <v>4.6507626590649336</v>
-      </c>
-      <c r="Q15">
-        <v>51.851898977689054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>81298514</v>
-      </c>
-      <c r="B16" s="2">
-        <v>52084506</v>
-      </c>
-      <c r="C16" s="2">
-        <v>400</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="P16">
-        <v>4.6548109210306103</v>
-      </c>
-      <c r="Q16">
-        <v>51.851726161228278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>81307077</v>
-      </c>
-      <c r="B17" s="2">
-        <v>52091552</v>
-      </c>
-      <c r="C17" s="2">
-        <v>630</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="P17">
-        <v>4.6513577366765944</v>
-      </c>
-      <c r="Q17">
-        <v>51.847478608375262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>81291837</v>
-      </c>
-      <c r="B18" s="2">
-        <v>52091782</v>
-      </c>
-      <c r="C18" s="2">
-        <v>300</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="P18">
-        <v>4.6541546021213236</v>
-      </c>
-      <c r="Q18">
-        <v>51.846040340107407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>81291825</v>
-      </c>
-      <c r="B19" s="2">
-        <v>52091782</v>
-      </c>
-      <c r="C19" s="2">
-        <v>300</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19">
-        <v>4.6541546021213236</v>
-      </c>
-      <c r="Q19">
-        <v>51.846040340107407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>942863778</v>
-      </c>
-      <c r="B20" s="2">
-        <v>934422528</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="P20">
-        <v>4.6558009263278883</v>
-      </c>
-      <c r="Q20">
-        <v>51.850111169611267</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
